--- a/data/metering bridge.xlsx
+++ b/data/metering bridge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>General Information</t>
   </si>
@@ -41,12 +41,33 @@
     <t>Repair Priority</t>
   </si>
   <si>
+    <t>WAEF - DEW</t>
+  </si>
+  <si>
+    <t>EWEF</t>
+  </si>
+  <si>
+    <t>metering bridge</t>
+  </si>
+  <si>
+    <t>efw</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
     <t>08NH084</t>
   </si>
   <si>
-    <t>metering bridge</t>
-  </si>
-  <si>
     <t>ARROW CREEK NEAR ERICKSON</t>
   </si>
   <si>
@@ -147,6 +168,18 @@
   </si>
   <si>
     <t>WHITEMAN CREEK ABOVE BOULEAU CREEK</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>2r43q</t>
+  </si>
+  <si>
+    <t>4r3qqqr3</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -532,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +580,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -571,6 +604,38 @@
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>-110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,16 +692,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>49.15912</v>
@@ -645,24 +710,24 @@
         <v>-116.452</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>50.73446</v>
@@ -671,24 +736,24 @@
         <v>-117.72935</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>50.91317</v>
@@ -697,24 +762,24 @@
         <v>-119.53284</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>49.20263</v>
@@ -723,24 +788,24 @@
         <v>-116.534</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>49.1325</v>
@@ -749,24 +814,24 @@
         <v>-120.038</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>61.195</v>
@@ -775,24 +840,24 @@
         <v>-136.98219</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>49.23454</v>
@@ -801,24 +866,24 @@
         <v>-117.239</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>51.67322</v>
@@ -827,24 +892,24 @@
         <v>-124.407</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>51.15229</v>
@@ -853,24 +918,24 @@
         <v>-120.85823</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>49.89149</v>
@@ -879,24 +944,24 @@
         <v>-114.833</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>49.36582</v>
@@ -905,24 +970,24 @@
         <v>-118.849</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>49.96492</v>
@@ -931,24 +996,24 @@
         <v>-120.13493</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>50.49856</v>
@@ -957,24 +1022,24 @@
         <v>-119.559</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>49.42746</v>
@@ -983,24 +1048,24 @@
         <v>-119.752</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>59.45417</v>
@@ -1009,24 +1074,24 @@
         <v>-126.228</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>50.21222</v>
@@ -1035,10 +1100,36 @@
         <v>-119.539</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>-121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
